--- a/src/GCModeller/annotations/GSEA/data/output_run/output_run-KEGG PATHWAY.xlsx
+++ b/src/GCModeller/annotations/GSEA/data/output_run/output_run-KEGG PATHWAY.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GCModeller\src\GCModeller\annotations\GSEA\data\output_run\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="11205"/>
   </bookViews>
@@ -463,12 +468,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,7 +481,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,7 +490,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -494,7 +499,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,7 +508,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,7 +517,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +525,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,7 +533,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -536,7 +541,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -544,7 +549,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -553,7 +558,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,7 +567,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -570,7 +575,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -579,7 +584,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,7 +592,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -596,7 +601,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,7 +610,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,14 +618,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1060,48 +1065,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,12 +1114,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,7 +1164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1191,7 +1199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,23 +1411,23 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1712,7 +1720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2031,7 +2039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2089,7 +2097,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2147,7 +2155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -2292,7 +2300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -2321,7 +2329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2379,7 +2387,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2466,7 +2474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>144</v>
       </c>
